--- a/extracted_tables.xlsx
+++ b/extracted_tables.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_1b3f1864_6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_a037c608_11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_4ff880ab_11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_302d8500_11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_cbb6409c_11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_25ca1f0d_12" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_4749fc2e_13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_b041cffe_13" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_2ce14a3c_6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_023cf8a7_11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_52166d9a_11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_c4f900c3_11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_2c9cf0c1_11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_c37fd4ca_12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_9107e2cf_13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_a279fd4c_13" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unnamed_Table_1b3f1864_6</t>
+          <t>Unnamed_Table_2ce14a3c_6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSharp Code Completion Dataset</t>
+          <t>C Sharp Code Completion Samples</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unnamed_Table_a037c608_11</t>
+          <t>Unnamed_Table_023cf8a7_11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Language Model Performance by License Category</t>
+          <t>Model Performance by Language and License</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,12 +491,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unnamed_Table_4ff880ab_11</t>
+          <t>Unnamed_Table_52166d9a_11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Language Model EM and Edit Similarity Comparison</t>
+          <t>OSS vs Proprietary Model Performance</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -506,12 +506,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unnamed_Table_302d8500_11</t>
+          <t>Unnamed_Table_c4f900c3_11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C# Code Generation Model Evaluation</t>
+          <t>C# Language Model Performance Comparison</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Unnamed_Table_cbb6409c_11</t>
+          <t>Unnamed_Table_2c9cf0c1_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C Sharp Code Generation Metrics by Model and BM25</t>
+          <t>Code Generation Quality Metrics by Model and BM25</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,12 +536,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Unnamed_Table_25ca1f0d_12</t>
+          <t>Unnamed_Table_c37fd4ca_12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C Sharp Code Davinci 002 Metrics by Source</t>
+          <t>C# Code-Davinci-002 Performance by Shot Source</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -551,12 +551,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Unnamed_Table_4749fc2e_13</t>
+          <t>Unnamed_Table_9107e2cf_13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C Sharp Code Davinci 002 BLEU Scores by Shot Source</t>
+          <t>BLEU Scores for C Sharp Code Davinci 002 by Shot Source</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -566,12 +566,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unnamed_Table_b041cffe_13</t>
+          <t>Unnamed_Table_a279fd4c_13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Identifier and NonIdentifier Accuracy by Model and Language</t>
+          <t>Code Token Accuracy by Language Model and Source</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Category-p-value</t>
+          <t>p-value</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,65 +1396,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OSS</t>
+          <t>BLEU-CN-OSS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>BLEU-CN-OSS</t>
+          <t>BLEU-CN-Proprietary</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BLEU-CN-Proprietary</t>
+          <t>BLEU-CN-p-value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BLEU-CN-p-value</t>
+          <t>BLEU-DC-OSS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>BLEU-DC-OSS</t>
+          <t>BLEU-DC-Proprietary</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BLEU-DC-Proprietary</t>
+          <t>BLEU-DC-p-value</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BLEU-DC-p-value</t>
+          <t>ROUGE-L-OSS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ROUGE-L-OSS</t>
+          <t>ROUGE-L-Proprietary</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ROUGE-L-Proprietary</t>
+          <t>ROUGE-L-p-value</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ROUGE-L-p-value</t>
+          <t>METEOR-OSS</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>METEOR-OSS</t>
+          <t>METEOR-Proprietary</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>METEOR-Proprietary</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>METEOR-p-value</t>
         </is>
@@ -1520,7 +1515,6 @@
           <t>0.03</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1582,7 +1576,6 @@
           <t>0.02</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1644,7 +1637,6 @@
           <t>&lt;0.01</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1690,15 +1682,22 @@
       <c r="K5" t="n">
         <v>23.5</v>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>23.11</v>
       </c>
       <c r="N5" t="n">
         <v>25.65</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>&lt;0.01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1760,7 +1759,6 @@
           <t>0.15</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1822,7 +1820,6 @@
           <t>&lt;0.01</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1884,7 +1881,6 @@
           <t>0.05</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1946,7 +1942,6 @@
           <t>0.65</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/extracted_tables.xlsx
+++ b/extracted_tables.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_2ce14a3c_6" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_023cf8a7_11" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_52166d9a_11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_c4f900c3_11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_2c9cf0c1_11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_c37fd4ca_12" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_9107e2cf_13" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_a279fd4c_13" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_f3ac1cfe_6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_a38c5d5c_11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_f6dd28ed_11" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_617355eb_11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_42baba9f_11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_1122d327_12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_9ccab279_13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Unnamed_Table_20e3b24b_13" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Unnamed_Table_2ce14a3c_6</t>
+          <t>Unnamed_Table_f3ac1cfe_6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Unnamed_Table_023cf8a7_11</t>
+          <t>Unnamed_Table_a38c5d5c_11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Model Performance by Language and License</t>
+          <t>OSS vs Proprietary Scores by Language Model</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -491,12 +491,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Unnamed_Table_52166d9a_11</t>
+          <t>Unnamed_Table_f6dd28ed_11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OSS vs Proprietary Model Performance</t>
+          <t>Language Model Performance by License Category</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -506,12 +506,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unnamed_Table_c4f900c3_11</t>
+          <t>Unnamed_Table_617355eb_11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C# Language Model Performance Comparison</t>
+          <t>C# Code Generation Metric Comparison</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Unnamed_Table_2c9cf0c1_11</t>
+          <t>Unnamed_Table_42baba9f_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Code Generation Quality Metrics by Model and BM25</t>
+          <t>C Sharp Code Generation Metrics Comparison</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Unnamed_Table_c37fd4ca_12</t>
+          <t>Unnamed_Table_1122d327_12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,12 +551,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Unnamed_Table_9107e2cf_13</t>
+          <t>Unnamed_Table_9ccab279_13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BLEU Scores for C Sharp Code Davinci 002 by Shot Source</t>
+          <t>C Sharp Code Davinci 002 BLEU Scores by Shot Source</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -566,12 +566,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Unnamed_Table_a279fd4c_13</t>
+          <t>Unnamed_Table_20e3b24b_13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Code Token Accuracy by Language Model and Source</t>
+          <t>LLM Accuracy on Identifiers and Non identifiers</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>p-value</t>
+          <t>Category-p-value</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Langauge</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
